--- a/nop-task/model/nop-task.orm.xlsx
+++ b/nop-task/model/nop-task.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-task\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C4C15-FFB8-4504-9360-B3EEA1EEB8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD20AD1-4945-400A-B638-AA3673502432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -825,10 +825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wf/wf-step-status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到期时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1552,6 +1548,10 @@
   </si>
   <si>
     <t>NopTaskStepInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task/task-step-status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1888,28 +1888,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,6 +1925,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1966,27 +1966,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,7 +1993,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,6 +2009,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2588,7 +2588,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
@@ -2599,7 +2599,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>90</v>
@@ -2610,7 +2610,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>81</v>
@@ -2621,7 +2621,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -2632,7 +2632,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="28" t="b">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -2789,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -3047,7 +3047,7 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3057,7 +3057,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>100</v>
@@ -3066,7 +3066,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3167,86 +3167,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34">
+      <c r="A1" s="42">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="G1" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="32"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>221</v>
-      </c>
       <c r="F5" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="22">
         <v>1</v>
       </c>
@@ -3254,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="22">
         <v>2</v>
       </c>
@@ -3271,16 +3271,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>225</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>226</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="22">
         <v>3</v>
       </c>
@@ -3288,18 +3288,18 @@
         <v>20</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="22">
         <v>4</v>
       </c>
@@ -3307,18 +3307,18 @@
         <v>30</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="22">
         <v>5</v>
       </c>
@@ -3326,18 +3326,18 @@
         <v>35</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>289</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>290</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="22">
         <v>6</v>
       </c>
@@ -3345,18 +3345,18 @@
         <v>40</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="22">
         <v>7</v>
       </c>
@@ -3364,18 +3364,18 @@
         <v>50</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="22">
         <v>8</v>
       </c>
@@ -3383,18 +3383,18 @@
         <v>60</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="22">
         <v>9</v>
       </c>
@@ -3402,106 +3402,106 @@
         <v>70</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
+      <c r="A16" s="40">
         <v>4</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="G16" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="29" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31" t="s">
+      <c r="G17" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="21" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>221</v>
-      </c>
       <c r="F20" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="22">
         <v>1</v>
       </c>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="22">
         <v>2</v>
       </c>
@@ -3526,16 +3526,16 @@
         <v>10</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>225</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>226</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="22">
         <v>3</v>
       </c>
@@ -3543,18 +3543,18 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="22">
         <v>4</v>
       </c>
@@ -3562,16 +3562,16 @@
         <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="22">
         <v>5</v>
       </c>
@@ -3579,16 +3579,16 @@
         <v>40</v>
       </c>
       <c r="D25" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="22">
         <v>6</v>
       </c>
@@ -3596,16 +3596,16 @@
         <v>50</v>
       </c>
       <c r="D26" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="22">
         <v>7</v>
       </c>
@@ -3613,16 +3613,16 @@
         <v>60</v>
       </c>
       <c r="D27" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="22">
         <v>8</v>
       </c>
@@ -3630,104 +3630,104 @@
         <v>70</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="34">
+      <c r="A30" s="42">
         <v>5</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31" t="s">
+      <c r="G30" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="29" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31" t="s">
+      <c r="G31" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="21" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="32"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="37" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="23" t="s">
+      <c r="C34" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="D34" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>221</v>
-      </c>
       <c r="F34" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="22">
         <v>1</v>
       </c>
@@ -3735,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>247</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22">
         <v>2</v>
       </c>
@@ -3752,16 +3752,16 @@
         <v>1</v>
       </c>
       <c r="D36" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>250</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="22">
         <v>3</v>
       </c>
@@ -3769,18 +3769,18 @@
         <v>2</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="22">
         <v>4</v>
       </c>
@@ -3788,39 +3788,27 @@
         <v>3</v>
       </c>
       <c r="D38" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="A30:A39"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
@@ -3830,12 +3818,24 @@
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B15:G15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3874,7 +3874,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -3898,7 +3898,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -3907,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -3958,7 +3958,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -3973,7 +3973,7 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -4056,7 +4056,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>110</v>
@@ -4090,14 +4090,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4122,14 +4122,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4235,7 +4235,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="9"/>
@@ -4269,7 +4269,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
@@ -4494,7 +4494,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -4509,7 +4509,7 @@
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
-      <c r="P22" s="32"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
@@ -4588,7 +4588,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -4596,11 +4596,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
-      <c r="M1" s="32"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4612,7 +4612,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -4621,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -4672,7 +4672,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -4687,7 +4687,7 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -4804,14 +4804,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
         <v>178</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4939,7 +4939,7 @@
         <v>164</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -4964,14 +4964,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -4994,14 +4994,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
@@ -5024,14 +5024,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
@@ -5266,80 +5266,80 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="34">
+      <c r="A25" s="42">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="31" t="s">
-        <v>323</v>
+      <c r="C25" s="71"/>
+      <c r="D25" s="29" t="s">
+        <v>322</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>287</v>
+      <c r="H25" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="60" t="s">
+      <c r="J25" s="30"/>
+      <c r="K25" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="61"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N25" s="53"/>
       <c r="O25" s="53"/>
       <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="31" t="s">
-        <v>324</v>
+      <c r="C26" s="71"/>
+      <c r="D26" s="29" t="s">
+        <v>323</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="31" t="s">
-        <v>310</v>
+      <c r="H26" s="29" t="s">
+        <v>309</v>
       </c>
       <c r="I26" s="33"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="60" t="s">
+      <c r="J26" s="30"/>
+      <c r="K26" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="61"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="52" t="s">
         <v>73</v>
       </c>
@@ -5348,13 +5348,13 @@
       <c r="P26" s="54"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="31" t="s">
-        <v>321</v>
+      <c r="C27" s="71"/>
+      <c r="D27" s="29" t="s">
+        <v>320</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
@@ -5362,10 +5362,10 @@
         <v>105</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I27" s="33"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
       <c r="M27" s="52"/>
@@ -5374,121 +5374,154 @@
       <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="60" t="s">
+      <c r="J28" s="30"/>
+      <c r="K28" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="61"/>
+      <c r="L28" s="66"/>
       <c r="M28" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
       <c r="P28" s="54"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="64"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="60" t="s">
+      <c r="H30" s="66"/>
+      <c r="I30" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="73"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="68"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
+      <c r="C31" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="67"/>
+      <c r="G31" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="60"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="69"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="67"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="69"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
@@ -5505,39 +5538,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5548,7 +5548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G52" sqref="G52:H52"/>
     </sheetView>
   </sheetViews>
@@ -5576,7 +5576,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -5600,7 +5600,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -5609,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -5660,7 +5660,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -5675,7 +5675,7 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -5758,13 +5758,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -5792,14 +5792,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5824,14 +5824,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -5854,14 +5854,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -5884,14 +5884,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>336</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>337</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -5935,7 +5935,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="7"/>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>158</v>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>140</v>
@@ -6132,14 +6132,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
         <v>132</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -6162,14 +6162,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -6190,7 +6190,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>179</v>
@@ -6312,14 +6312,14 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
@@ -6342,14 +6342,14 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
@@ -6372,14 +6372,14 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -6402,14 +6402,14 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="7"/>
@@ -6432,14 +6432,14 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="7"/>
@@ -6494,14 +6494,14 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="7"/>
@@ -6524,13 +6524,13 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>9</v>
@@ -6800,7 +6800,7 @@
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -6815,65 +6815,65 @@
       <c r="M42" s="33"/>
       <c r="N42" s="33"/>
       <c r="O42" s="33"/>
-      <c r="P42" s="32"/>
+      <c r="P42" s="30"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="57"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="74"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="34">
+      <c r="A45" s="42">
         <v>1</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="31" t="s">
-        <v>347</v>
+      <c r="C45" s="71"/>
+      <c r="D45" s="29" t="s">
+        <v>346</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="31"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="33"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="60" t="s">
+      <c r="J45" s="30"/>
+      <c r="K45" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L45" s="61"/>
+      <c r="L45" s="66"/>
       <c r="M45" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N45" s="53"/>
       <c r="O45" s="53"/>
       <c r="P45" s="54"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="58" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="31" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="29" t="s">
         <v>135</v>
       </c>
       <c r="E46" s="33"/>
@@ -6881,15 +6881,15 @@
       <c r="G46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="31" t="s">
-        <v>344</v>
+      <c r="H46" s="29" t="s">
+        <v>343</v>
       </c>
       <c r="I46" s="33"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="60" t="s">
+      <c r="J46" s="30"/>
+      <c r="K46" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L46" s="61"/>
+      <c r="L46" s="66"/>
       <c r="M46" s="52" t="s">
         <v>73</v>
       </c>
@@ -6898,12 +6898,12 @@
       <c r="P46" s="54"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="58" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="19" t="s">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
-      <c r="J47" s="32"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
       <c r="M47" s="52"/>
@@ -6920,22 +6920,22 @@
       <c r="P47" s="54"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="31"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="60" t="s">
+      <c r="J48" s="30"/>
+      <c r="K48" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="61"/>
+      <c r="L48" s="66"/>
       <c r="M48" s="52" t="s">
         <v>108</v>
       </c>
@@ -6944,109 +6944,119 @@
       <c r="P48" s="54"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="62" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="64"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="57"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="61"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="G50" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="60" t="s">
+      <c r="H50" s="66"/>
+      <c r="I50" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="61"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="73"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="68"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="8">
         <v>1</v>
       </c>
-      <c r="C51" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
+      <c r="C51" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="H51" s="67"/>
+      <c r="G51" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="H51" s="60"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="69"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="67"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="69"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="M47:P47"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="A44:P44"/>
@@ -7063,28 +7073,18 @@
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7095,8 +7095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53:P53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7123,7 +7123,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -7147,7 +7147,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -7156,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -7207,7 +7207,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -7222,7 +7222,7 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -7339,14 +7339,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -7439,10 +7439,10 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -7486,7 +7486,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="9" t="s">
-        <v>188</v>
+        <v>370</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>110</v>
@@ -7506,7 +7506,7 @@
         <v>172</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -7529,14 +7529,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
         <v>173</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -7559,14 +7559,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
@@ -7656,7 +7656,7 @@
         <v>137</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -7679,16 +7679,16 @@
         <v>127</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -7709,16 +7709,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -7739,14 +7739,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -7769,14 +7769,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -7831,13 +7831,13 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -7872,7 +7872,7 @@
         <v>180</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
@@ -8115,80 +8115,80 @@
       <c r="P33" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="34">
+      <c r="A36" s="42">
         <v>1</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="31" t="s">
-        <v>343</v>
+      <c r="C36" s="71"/>
+      <c r="D36" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="31" t="s">
-        <v>359</v>
+      <c r="H36" s="29" t="s">
+        <v>358</v>
       </c>
       <c r="I36" s="33"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="60" t="s">
+      <c r="J36" s="30"/>
+      <c r="K36" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L36" s="61"/>
+      <c r="L36" s="66"/>
       <c r="M36" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
       <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="31" t="s">
-        <v>328</v>
+      <c r="C37" s="71"/>
+      <c r="D37" s="29" t="s">
+        <v>327</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="31" t="s">
-        <v>329</v>
+      <c r="H37" s="29" t="s">
+        <v>328</v>
       </c>
       <c r="I37" s="33"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="60" t="s">
+      <c r="J37" s="30"/>
+      <c r="K37" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="61"/>
+      <c r="L37" s="66"/>
       <c r="M37" s="52" t="s">
         <v>73</v>
       </c>
@@ -8197,12 +8197,12 @@
       <c r="P37" s="54"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="58" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="19" t="s">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="32"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="52"/>
@@ -8219,172 +8219,172 @@
       <c r="P38" s="54"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="58" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="60" t="s">
+      <c r="J39" s="30"/>
+      <c r="K39" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="61"/>
+      <c r="L39" s="66"/>
       <c r="M39" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N39" s="53"/>
       <c r="O39" s="53"/>
       <c r="P39" s="54"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="43"/>
+      <c r="B40" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="64"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="57"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="61"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="60" t="s">
+      <c r="H41" s="66"/>
+      <c r="I41" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="61"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="73"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="68"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
+      <c r="C42" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="H42" s="67"/>
+      <c r="G42" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="H42" s="60"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="69"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="62"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="67"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="69"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="62"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="34">
+      <c r="A44" s="42">
         <v>2</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="31" t="s">
-        <v>360</v>
+      <c r="C44" s="71"/>
+      <c r="D44" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="31"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="33"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="60" t="s">
+      <c r="J44" s="30"/>
+      <c r="K44" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L44" s="61"/>
+      <c r="L44" s="66"/>
       <c r="M44" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
       <c r="P44" s="54"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="31" t="s">
-        <v>211</v>
+      <c r="C45" s="71"/>
+      <c r="D45" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="31" t="s">
-        <v>361</v>
+      <c r="H45" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="I45" s="33"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="60" t="s">
+      <c r="J45" s="30"/>
+      <c r="K45" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L45" s="61"/>
+      <c r="L45" s="66"/>
       <c r="M45" s="52" t="s">
         <v>73</v>
       </c>
@@ -8393,12 +8393,12 @@
       <c r="P45" s="54"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="58" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="19" t="s">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="52"/>
@@ -8415,22 +8415,22 @@
       <c r="P46" s="54"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="58" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="60" t="s">
+      <c r="J47" s="30"/>
+      <c r="K47" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="61"/>
+      <c r="L47" s="66"/>
       <c r="M47" s="52" t="s">
         <v>108</v>
       </c>
@@ -8439,150 +8439,150 @@
       <c r="P47" s="54"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="64"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="57"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="61"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="60" t="s">
+      <c r="H49" s="66"/>
+      <c r="I49" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="61"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="73"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="68"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="8">
         <v>1</v>
       </c>
-      <c r="C50" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
+      <c r="C50" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="H50" s="67"/>
+      <c r="G50" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="H50" s="60"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="69"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="67"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="69"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="34">
+      <c r="A52" s="42">
         <v>3</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="31" t="s">
-        <v>363</v>
+      <c r="C52" s="71"/>
+      <c r="D52" s="29" t="s">
+        <v>362</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="31" t="s">
-        <v>367</v>
+      <c r="H52" s="29" t="s">
+        <v>366</v>
       </c>
       <c r="I52" s="33"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="60" t="s">
+      <c r="J52" s="30"/>
+      <c r="K52" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L52" s="61"/>
+      <c r="L52" s="66"/>
       <c r="M52" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N52" s="53"/>
       <c r="O52" s="53"/>
       <c r="P52" s="54"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="58" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="31" t="s">
-        <v>364</v>
+      <c r="C53" s="71"/>
+      <c r="D53" s="29" t="s">
+        <v>363</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="31" t="s">
-        <v>365</v>
+      <c r="H53" s="29" t="s">
+        <v>364</v>
       </c>
       <c r="I53" s="33"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="60" t="s">
+      <c r="J53" s="30"/>
+      <c r="K53" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L53" s="61"/>
+      <c r="L53" s="66"/>
       <c r="M53" s="52" t="s">
         <v>73</v>
       </c>
@@ -8591,13 +8591,13 @@
       <c r="P53" s="54"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="58" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="31" t="s">
-        <v>366</v>
+      <c r="C54" s="71"/>
+      <c r="D54" s="29" t="s">
+        <v>365</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
@@ -8605,10 +8605,10 @@
         <v>105</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I54" s="33"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="52"/>
@@ -8617,22 +8617,22 @@
       <c r="P54" s="54"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="58" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="33"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="60" t="s">
+      <c r="J55" s="30"/>
+      <c r="K55" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="61"/>
+      <c r="L55" s="66"/>
       <c r="M55" s="52" t="s">
         <v>108</v>
       </c>
@@ -8641,180 +8641,110 @@
       <c r="P55" s="54"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="62" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="64"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="57"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="61"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="66"/>
       <c r="F57" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="60" t="s">
+      <c r="G57" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="61"/>
-      <c r="I57" s="60" t="s">
+      <c r="H57" s="66"/>
+      <c r="I57" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="61"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="73"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="68"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="8">
         <v>1</v>
       </c>
-      <c r="C58" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
+      <c r="C58" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="D58" s="59"/>
+      <c r="E58" s="60"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="65" t="s">
+      <c r="G58" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H58" s="67"/>
+      <c r="H58" s="60"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="69"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="62"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="67"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="60"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="67"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="60"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="69"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="K39:L39"/>
@@ -8838,19 +8768,89 @@
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-task/model/nop-task.orm.xlsx
+++ b/nop-task/model/nop-task.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-task\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD20AD1-4945-400A-B638-AA3673502432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FAE1EB-0141-41B6-9042-DD059CDDE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="379">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1552,6 +1552,38 @@
   </si>
   <si>
     <t>task/task-step-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是Job调度触发，对应于Job调度的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式执行时对应于执行者ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1888,21 +1920,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1934,6 +1951,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3167,17 +3199,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="42">
+      <c r="A1" s="37">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="21" t="s">
         <v>212</v>
       </c>
@@ -3186,15 +3218,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>215</v>
       </c>
@@ -3203,29 +3235,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="23" t="s">
         <v>218</v>
       </c>
@@ -3246,7 +3278,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="22">
         <v>1</v>
       </c>
@@ -3263,7 +3295,7 @@
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="22">
         <v>2</v>
       </c>
@@ -3280,7 +3312,7 @@
       <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="22">
         <v>3</v>
       </c>
@@ -3299,7 +3331,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="22">
         <v>4</v>
       </c>
@@ -3318,7 +3350,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="22">
         <v>5</v>
       </c>
@@ -3337,7 +3369,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="22">
         <v>6</v>
       </c>
@@ -3356,7 +3388,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="22">
         <v>7</v>
       </c>
@@ -3375,7 +3407,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="22">
         <v>8</v>
       </c>
@@ -3394,7 +3426,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="22">
         <v>9</v>
       </c>
@@ -3413,26 +3445,26 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="A16" s="35">
         <v>4</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="21" t="s">
         <v>212</v>
       </c>
@@ -3441,15 +3473,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="21" t="s">
         <v>215</v>
       </c>
@@ -3458,29 +3490,29 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="23" t="s">
         <v>218</v>
       </c>
@@ -3501,7 +3533,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="22">
         <v>1</v>
       </c>
@@ -3518,7 +3550,7 @@
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="22">
         <v>2</v>
       </c>
@@ -3535,7 +3567,7 @@
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="22">
         <v>3</v>
       </c>
@@ -3554,7 +3586,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="22">
         <v>4</v>
       </c>
@@ -3571,7 +3603,7 @@
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="22">
         <v>5</v>
       </c>
@@ -3588,7 +3620,7 @@
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="22">
         <v>6</v>
       </c>
@@ -3605,7 +3637,7 @@
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="22">
         <v>7</v>
       </c>
@@ -3622,7 +3654,7 @@
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="22">
         <v>8</v>
       </c>
@@ -3639,26 +3671,26 @@
       <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="37">
         <v>5</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="21" t="s">
         <v>212</v>
       </c>
@@ -3667,15 +3699,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="29" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="21" t="s">
         <v>215</v>
       </c>
@@ -3684,29 +3716,29 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="23" t="s">
         <v>218</v>
       </c>
@@ -3727,7 +3759,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="22">
         <v>1</v>
       </c>
@@ -3744,7 +3776,7 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="22">
         <v>2</v>
       </c>
@@ -3761,7 +3793,7 @@
       <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="22">
         <v>3</v>
       </c>
@@ -3780,7 +3812,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="22">
         <v>4</v>
       </c>
@@ -3799,16 +3831,18 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="A30:A39"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
@@ -3818,6 +3852,8 @@
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="B29:G29"/>
@@ -3832,10 +3868,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B15:G15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3958,22 +3990,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="30"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -4494,22 +4526,22 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="30"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="43"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
@@ -4596,11 +4628,11 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4672,22 +4704,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="30"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -5286,26 +5318,26 @@
       <c r="P24" s="74"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
+      <c r="A25" s="37">
         <v>1</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="71"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="30"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="43"/>
       <c r="K25" s="64" t="s">
         <v>63</v>
       </c>
@@ -5318,24 +5350,24 @@
       <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="71"/>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="43"/>
       <c r="K26" s="64" t="s">
         <v>72</v>
       </c>
@@ -5348,24 +5380,24 @@
       <c r="P26" s="54"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="71"/>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
       <c r="M27" s="52"/>
@@ -5374,18 +5406,18 @@
       <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="71"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="30"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="64" t="s">
         <v>9</v>
       </c>
@@ -5398,7 +5430,7 @@
       <c r="P28" s="54"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="55" t="s">
         <v>19</v>
       </c>
@@ -5418,7 +5450,7 @@
       <c r="P29" s="57"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
@@ -5446,7 +5478,7 @@
       <c r="P30" s="68"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
@@ -5470,7 +5502,7 @@
       <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="58"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -5546,10 +5578,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:H52"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5557,7 +5589,7 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="4.75" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -5660,22 +5692,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="30"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -5911,7 +5943,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -5943,7 +5975,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
@@ -5973,7 +6005,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
@@ -6003,7 +6035,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
@@ -6033,7 +6065,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -6065,7 +6097,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -6095,7 +6127,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -6127,7 +6159,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -6157,7 +6189,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6185,7 +6217,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -6215,7 +6247,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
@@ -6247,7 +6279,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -6277,7 +6309,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -6307,7 +6339,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -6337,7 +6369,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -6367,7 +6399,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6397,7 +6429,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6427,7 +6459,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -6457,7 +6489,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -6489,7 +6521,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -6519,7 +6551,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -6551,65 +6583,59 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E34" s="7"/>
       <c r="F34" s="9" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K34" s="7">
+        <v>32</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K35" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="9"/>
@@ -6619,30 +6645,28 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K36" s="7">
+        <v>500</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -6651,26 +6675,22 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9" t="s">
-        <v>47</v>
+        <v>375</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="9" t="s">
         <v>28</v>
       </c>
@@ -6680,33 +6700,37 @@
       <c r="L37" s="7"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="7"/>
+      <c r="O37" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F38" s="9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -6717,30 +6741,32 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="9" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="I39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K39" s="7">
+        <v>50</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -6749,32 +6775,30 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="7">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -6782,17 +6806,33 @@
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7">
+        <v>34</v>
+      </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="7"/>
+      <c r="F41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="7">
+        <v>50</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -6800,279 +6840,395 @@
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="30"/>
+      <c r="A42" s="7">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>36</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="7">
+        <v>37</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="7">
+        <v>200</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="43"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="74"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="42">
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="74"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="37">
         <v>1</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B49" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="29" t="s">
+      <c r="C49" s="71"/>
+      <c r="D49" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="2" t="s">
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="64" t="s">
+      <c r="H49" s="42"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L45" s="66"/>
-      <c r="M45" s="52" t="s">
+      <c r="L49" s="66"/>
+      <c r="M49" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="54"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="70" t="s">
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="54"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="29" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="2" t="s">
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H50" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="64" t="s">
+      <c r="I50" s="44"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L46" s="66"/>
-      <c r="M46" s="52" t="s">
+      <c r="L50" s="66"/>
+      <c r="M50" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="54"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="70" t="s">
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="54"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
+      <c r="B51" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="19" t="s">
+      <c r="C51" s="71"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="54"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
-      <c r="B48" s="70" t="s">
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="54"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
+      <c r="B52" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="64" t="s">
+      <c r="C52" s="71"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="66"/>
-      <c r="M48" s="52" t="s">
+      <c r="L52" s="66"/>
+      <c r="M52" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="54"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
-      <c r="B49" s="55" t="s">
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="54"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
+      <c r="B53" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="57"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="13" t="s">
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="57"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C54" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="17" t="s">
+      <c r="D54" s="65"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="G54" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="66"/>
-      <c r="I50" s="64" t="s">
+      <c r="H54" s="66"/>
+      <c r="I54" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="68"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="8">
+      <c r="J54" s="66"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="68"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
+      <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C55" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="58" t="s">
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="H51" s="60"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="62"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="62"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="62"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:P50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -7095,7 +7251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -7207,22 +7363,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="30"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
@@ -8135,26 +8291,26 @@
       <c r="P35" s="74"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="37">
         <v>1</v>
       </c>
       <c r="B36" s="70" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="71"/>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="30"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="43"/>
       <c r="K36" s="64" t="s">
         <v>63</v>
       </c>
@@ -8167,24 +8323,24 @@
       <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="71"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="30"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="43"/>
       <c r="K37" s="64" t="s">
         <v>72</v>
       </c>
@@ -8197,20 +8353,20 @@
       <c r="P37" s="54"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C38" s="71"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="30"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="43"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="52"/>
@@ -8219,18 +8375,18 @@
       <c r="P38" s="54"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="71"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="30"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="64" t="s">
         <v>9</v>
       </c>
@@ -8243,7 +8399,7 @@
       <c r="P39" s="54"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="55" t="s">
         <v>19</v>
       </c>
@@ -8263,7 +8419,7 @@
       <c r="P40" s="57"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="13" t="s">
         <v>22</v>
       </c>
@@ -8291,7 +8447,7 @@
       <c r="P41" s="68"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="43"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
@@ -8315,7 +8471,7 @@
       <c r="P42" s="62"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="58"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -8333,24 +8489,24 @@
       <c r="P43" s="62"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="37">
         <v>2</v>
       </c>
       <c r="B44" s="70" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="71"/>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="30"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="64" t="s">
         <v>63</v>
       </c>
@@ -8363,24 +8519,24 @@
       <c r="P44" s="54"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="71"/>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="30"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="43"/>
       <c r="K45" s="64" t="s">
         <v>72</v>
       </c>
@@ -8393,20 +8549,20 @@
       <c r="P45" s="54"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="71"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="30"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="43"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="52"/>
@@ -8415,18 +8571,18 @@
       <c r="P46" s="54"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="71"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="30"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="64" t="s">
         <v>9</v>
       </c>
@@ -8439,7 +8595,7 @@
       <c r="P47" s="54"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="55" t="s">
         <v>19</v>
       </c>
@@ -8459,7 +8615,7 @@
       <c r="P48" s="57"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="13" t="s">
         <v>22</v>
       </c>
@@ -8487,7 +8643,7 @@
       <c r="P49" s="68"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="8">
         <v>1</v>
       </c>
@@ -8511,7 +8667,7 @@
       <c r="P50" s="62"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="58"/>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -8529,26 +8685,26 @@
       <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="37">
         <v>3</v>
       </c>
       <c r="B52" s="70" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="30"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="43"/>
       <c r="K52" s="64" t="s">
         <v>63</v>
       </c>
@@ -8561,24 +8717,24 @@
       <c r="P52" s="54"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="43"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="71"/>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="30"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="43"/>
       <c r="K53" s="64" t="s">
         <v>72</v>
       </c>
@@ -8591,24 +8747,24 @@
       <c r="P53" s="54"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="30"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="43"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="52"/>
@@ -8617,18 +8773,18 @@
       <c r="P54" s="54"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="43"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="71"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="30"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="43"/>
       <c r="K55" s="64" t="s">
         <v>9</v>
       </c>
@@ -8641,7 +8797,7 @@
       <c r="P55" s="54"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="43"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="55" t="s">
         <v>19</v>
       </c>
@@ -8661,7 +8817,7 @@
       <c r="P56" s="57"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="43"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="13" t="s">
         <v>22</v>
       </c>
@@ -8689,7 +8845,7 @@
       <c r="P57" s="68"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="43"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="8">
         <v>1</v>
       </c>
@@ -8713,7 +8869,7 @@
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="43"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="58"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>

--- a/nop-task/model/nop-task.orm.xlsx
+++ b/nop-task/model/nop-task.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-task\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FAE1EB-0141-41B6-9042-DD059CDDE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB40C7E-E6A9-401A-894C-16E7B8968399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="402">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,14 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STEP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stepId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STEP_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1387,10 +1379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TASK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TaskFlow ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1459,10 +1447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>taskId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nop_task_step_instance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1555,10 +1539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOB_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Job Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1571,10 +1551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Worker_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Worker Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1584,6 +1560,122 @@
   </si>
   <si>
     <t>分布式执行时对应于执行者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskInstanceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepInstanceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODY_STEP_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Step Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤下标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_BEAN_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State Bean Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERNAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1920,6 +2012,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1942,30 +2058,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1998,6 +2090,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,13 +2138,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,21 +2148,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2379,14 +2471,14 @@
       <selection activeCell="B14" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.4140625" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2400,7 +2492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2408,7 +2500,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2416,7 +2508,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2424,7 +2516,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2432,7 +2524,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2440,7 +2532,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2448,7 +2540,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2456,7 +2548,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2464,7 +2556,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2472,7 +2564,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2480,7 +2572,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2488,7 +2580,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2496,7 +2588,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2504,7 +2596,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2512,7 +2604,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2520,7 +2612,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2528,7 +2620,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2536,37 +2628,37 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2586,16 +2678,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -2604,7 +2696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -2615,62 +2707,62 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -2681,7 +2773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -2692,7 +2784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -2703,36 +2795,36 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" s="28" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2751,13 +2843,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
-    <col min="5" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -2780,7 +2872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2797,7 +2889,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2805,7 +2897,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -2816,15 +2908,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -2835,7 +2927,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2852,7 +2944,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2869,7 +2961,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2886,7 +2978,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2903,7 +2995,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2920,7 +3012,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2935,7 +3027,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2954,7 +3046,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2971,7 +3063,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2986,7 +3078,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3001,7 +3093,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3018,7 +3110,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3033,7 +3125,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3050,7 +3142,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3067,7 +3159,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3079,17 +3171,17 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>100</v>
@@ -3098,17 +3190,17 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -3120,7 +3212,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3129,7 +3221,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3138,7 +3230,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3147,7 +3239,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3156,7 +3248,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3165,7 +3257,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3188,97 +3280,97 @@
       <selection activeCell="D32" sqref="D32:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.9140625" customWidth="1"/>
-    <col min="3" max="3" width="8.4140625" customWidth="1"/>
+    <col min="1" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="21" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40" t="s">
+      <c r="G2" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="21" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="29" t="s">
+      <c r="C5" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="23" t="s">
+      <c r="D5" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>220</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
       <c r="B6" s="22">
         <v>1</v>
       </c>
@@ -3286,16 +3378,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
       <c r="B7" s="22">
         <v>2</v>
       </c>
@@ -3303,16 +3395,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
       <c r="B8" s="22">
         <v>3</v>
       </c>
@@ -3320,18 +3412,18 @@
         <v>20</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
       <c r="B9" s="22">
         <v>4</v>
       </c>
@@ -3339,18 +3431,18 @@
         <v>30</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
       <c r="B10" s="22">
         <v>5</v>
       </c>
@@ -3358,18 +3450,18 @@
         <v>35</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
       <c r="B11" s="22">
         <v>6</v>
       </c>
@@ -3377,18 +3469,18 @@
         <v>40</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
       <c r="B12" s="22">
         <v>7</v>
       </c>
@@ -3396,18 +3488,18 @@
         <v>50</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
       <c r="B13" s="22">
         <v>8</v>
       </c>
@@ -3415,18 +3507,18 @@
         <v>60</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
       <c r="B14" s="22">
         <v>9</v>
       </c>
@@ -3434,106 +3526,106 @@
         <v>70</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
         <v>4</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="16" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40" t="s">
+      <c r="G20" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
       <c r="B21" s="22">
         <v>1</v>
       </c>
@@ -3541,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
       <c r="B22" s="22">
         <v>2</v>
       </c>
@@ -3558,16 +3650,16 @@
         <v>10</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
       <c r="B23" s="22">
         <v>3</v>
       </c>
@@ -3575,18 +3667,18 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
       <c r="B24" s="22">
         <v>4</v>
       </c>
@@ -3594,16 +3686,16 @@
         <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
       <c r="B25" s="22">
         <v>5</v>
       </c>
@@ -3611,16 +3703,16 @@
         <v>40</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
       <c r="B26" s="22">
         <v>6</v>
       </c>
@@ -3628,16 +3720,16 @@
         <v>50</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
       <c r="B27" s="22">
         <v>7</v>
       </c>
@@ -3645,16 +3737,16 @@
         <v>60</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
       <c r="B28" s="22">
         <v>8</v>
       </c>
@@ -3662,104 +3754,104 @@
         <v>70</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
         <v>5</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="16" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="40" t="s">
+      <c r="G34" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
       <c r="B35" s="22">
         <v>1</v>
       </c>
@@ -3767,16 +3859,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
       <c r="B36" s="22">
         <v>2</v>
       </c>
@@ -3784,16 +3876,16 @@
         <v>1</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
       <c r="B37" s="22">
         <v>3</v>
       </c>
@@ -3801,18 +3893,18 @@
         <v>2</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
       <c r="B38" s="22">
         <v>4</v>
       </c>
@@ -3820,27 +3912,38 @@
         <v>3</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A30:A39"/>
@@ -3857,17 +3960,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3882,31 +3974,31 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -3923,14 +4015,14 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -3939,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -3949,7 +4041,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
@@ -3969,7 +4061,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
@@ -3989,25 +4081,25 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
@@ -4027,7 +4119,7 @@
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4077,7 +4169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4088,13 +4180,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4115,21 +4207,21 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4147,28 +4239,28 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -4177,7 +4269,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -4211,7 +4303,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4241,7 +4333,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -4267,7 +4359,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="9"/>
@@ -4275,7 +4367,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -4301,13 +4393,13 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -4341,7 +4433,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4375,7 +4467,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4407,7 +4499,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -4441,7 +4533,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -4473,7 +4565,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -4507,7 +4599,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4525,31 +4617,31 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
         <v>118</v>
       </c>
@@ -4592,35 +4684,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CBED42-15B8-407C-B6D0-6579D6419739}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -4628,23 +4720,23 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="43"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -4653,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -4663,7 +4755,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
@@ -4683,7 +4775,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
@@ -4703,25 +4795,25 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4833,7 @@
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4791,7 +4883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4829,21 +4921,21 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4861,21 +4953,21 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4893,23 +4985,23 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -4927,21 +5019,21 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -4957,21 +5049,21 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -4989,28 +5081,28 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -5019,28 +5111,28 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -5049,28 +5141,28 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -5079,7 +5171,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -5113,7 +5205,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -5147,7 +5239,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -5179,7 +5271,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -5213,7 +5305,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -5245,7 +5337,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -5279,7 +5371,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5297,81 +5389,81 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>1</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="64" t="s">
+      <c r="H25" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="66"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N25" s="53"/>
       <c r="O25" s="53"/>
       <c r="P25" s="54"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="70" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="64" t="s">
+      <c r="H26" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="66"/>
+      <c r="L26" s="61"/>
       <c r="M26" s="52" t="s">
         <v>73</v>
       </c>
@@ -5379,25 +5471,25 @@
       <c r="O26" s="53"/>
       <c r="P26" s="54"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="43"/>
+      <c r="H27" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
       <c r="M27" s="52"/>
@@ -5405,134 +5497,143 @@
       <c r="O27" s="53"/>
       <c r="P27" s="54"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="70" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="64" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="66"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
       <c r="P28" s="54"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="64" t="s">
+      <c r="H30" s="61"/>
+      <c r="I30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="68"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="73"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
+      <c r="C31" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="60"/>
+      <c r="G31" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="H31" s="67"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="62"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="69"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="62"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
@@ -5549,1686 +5650,6 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:P46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="7">
-        <v>500</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="20">
-        <v>4000</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="20">
-        <v>100</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7">
-        <v>200</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>500</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7">
-        <v>32</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="7">
-        <v>200</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>17</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7">
-        <v>50</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>18</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="7">
-        <v>50</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="7">
-        <v>50</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>20</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="7">
-        <v>50</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>21</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="7">
-        <v>50</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>22</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="7">
-        <v>50</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>23</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="7">
-        <v>50</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>25</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>26</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="7">
-        <v>200</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>27</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="7">
-        <v>32</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>28</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="7">
-        <v>200</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>29</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="7">
-        <v>500</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>30</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="7">
-        <v>50</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>31</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>32</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="7">
-        <v>50</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>33</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>34</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="7">
-        <v>50</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>35</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>36</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>37</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="7">
-        <v>200</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="43"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="74"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="37">
-        <v>1</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="42"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="66"/>
-      <c r="M49" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="54"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="I50" s="44"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" s="66"/>
-      <c r="M50" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="54"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="54"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
-      <c r="B52" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" s="66"/>
-      <c r="M52" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="66"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="69"/>
-      <c r="P54" s="68"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="H55" s="60"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="62"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -7247,43 +5668,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P59"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="8.08203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="4.9140625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="7.4140625" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.4140625" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
@@ -7296,23 +5717,23 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -7322,7 +5743,1678 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>500</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="20">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="20">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>200</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7">
+        <v>200</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>500</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>32</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="7">
+        <v>200</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>50</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="7">
+        <v>50</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="7">
+        <v>50</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7">
+        <v>50</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="7">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="7">
+        <v>50</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="7">
+        <v>50</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>25</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="7">
+        <v>200</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="7">
+        <v>32</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>28</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="7">
+        <v>200</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>29</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="7">
+        <v>500</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>30</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="7">
+        <v>50</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>32</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="7">
+        <v>50</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>33</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>34</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="7">
+        <v>50</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>36</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>37</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="7">
+        <v>200</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="33"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="57"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
+        <v>1</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="61"/>
+      <c r="M49" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="54"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="I50" s="32"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="61"/>
+      <c r="M50" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="54"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="54"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="61"/>
+      <c r="M52" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="54"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="64"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+      <c r="B54" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="71"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="61"/>
+      <c r="I54" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="61"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="73"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H55" s="67"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="69"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
+  <dimension ref="A1:P65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
@@ -7342,7 +7434,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
@@ -7362,25 +7454,25 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
@@ -7400,7 +7492,7 @@
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -7450,7 +7542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -7461,7 +7553,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>110</v>
@@ -7488,21 +7580,21 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -7520,21 +7612,21 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -7552,7 +7644,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -7584,7 +7676,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -7595,10 +7687,10 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -7616,14 +7708,14 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
@@ -7642,27 +7734,27 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -7678,21 +7770,21 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -7708,26 +7800,26 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -7736,7 +7828,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>29</v>
       </c>
@@ -7752,7 +7844,7 @@
         <v>58</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -7766,7 +7858,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>30</v>
       </c>
@@ -7775,11 +7867,11 @@
         <v>127</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>61</v>
@@ -7796,7 +7888,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>31</v>
       </c>
@@ -7812,7 +7904,7 @@
         <v>137</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -7826,7 +7918,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>35</v>
       </c>
@@ -7835,16 +7927,16 @@
         <v>127</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -7858,23 +7950,23 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>36</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -7888,51 +7980,47 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>37</v>
-      </c>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>263</v>
+        <v>398</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7">
-        <v>200</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -7940,7 +8028,7 @@
         <v>28</v>
       </c>
       <c r="K23" s="7">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
@@ -7948,87 +8036,85 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>4000</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="7"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="7">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="7"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>357</v>
+        <v>9</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
@@ -8036,7 +8122,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="7">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="9"/>
@@ -8044,64 +8130,56 @@
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K27" s="7">
+        <v>32</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="7"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="9" t="s">
         <v>28</v>
       </c>
@@ -8114,102 +8192,88 @@
       <c r="O28" s="7"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>383</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2000</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="7"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>48</v>
+        <v>385</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>96</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="7" t="s">
-        <v>27</v>
+        <v>374</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="7">
-        <v>50</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="7"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>51</v>
+        <v>389</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="7" t="s">
-        <v>27</v>
+        <v>374</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -8218,33 +8282,29 @@
       <c r="O31" s="7"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="9" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>107</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="7"/>
       <c r="J32" s="9" t="s">
-        <v>28</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="9"/>
@@ -8252,17 +8312,33 @@
       <c r="O32" s="7"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>50</v>
+      </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="D33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="9"/>
@@ -8270,624 +8346,922 @@
       <c r="O33" s="7"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="72" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>51</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="7">
+        <v>50</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>52</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>53</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="7">
+        <v>50</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>54</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>55</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="7">
+        <v>200</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="37">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="57"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
         <v>1</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B42" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="2" t="s">
+      <c r="C42" s="59"/>
+      <c r="D42" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="64" t="s">
+      <c r="H42" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="L36" s="66"/>
-      <c r="M36" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="70" t="s">
+      <c r="L42" s="61"/>
+      <c r="M42" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="54"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="2" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="64" t="s">
+      <c r="H43" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="66"/>
-      <c r="M37" s="52" t="s">
+      <c r="L43" s="61"/>
+      <c r="M43" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="54"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="70" t="s">
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="54"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="19" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="54"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="54"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="57"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="66"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="68"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="H42" s="60"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="62"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="62"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="37">
-        <v>2</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="42"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="L44" s="66"/>
-      <c r="M44" s="52" t="s">
-        <v>344</v>
-      </c>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="52"/>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
       <c r="P44" s="54"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="L45" s="66"/>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="61"/>
       <c r="M45" s="52" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="N45" s="53"/>
       <c r="O45" s="53"/>
       <c r="P45" s="54"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="70" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="64"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="71"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="61"/>
+      <c r="I47" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="61"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="73"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" s="67"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="69"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="69"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
+        <v>2</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" s="61"/>
+      <c r="M50" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="54"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="61"/>
+      <c r="M51" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="54"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="19" t="s">
+      <c r="C52" s="59"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="54"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="66"/>
-      <c r="M47" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="54"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="57"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="66"/>
-      <c r="I49" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="66"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="68"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="8">
-        <v>1</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="H50" s="60"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="62"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="62"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="37">
-        <v>3</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="I52" s="44"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="L52" s="66"/>
-      <c r="M52" s="52" t="s">
-        <v>369</v>
-      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="52"/>
       <c r="N52" s="53"/>
       <c r="O52" s="53"/>
       <c r="P52" s="54"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="I53" s="44"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="L53" s="66"/>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="59"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="61"/>
       <c r="M53" s="52" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="N53" s="53"/>
       <c r="O53" s="53"/>
       <c r="P53" s="54"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="70" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+      <c r="B54" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="64"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="71"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="61"/>
+      <c r="I55" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="61"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="73"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H56" s="67"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="69"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="69"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <v>3</v>
+      </c>
+      <c r="B58" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="I58" s="32"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" s="61"/>
+      <c r="M58" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="54"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="I59" s="32"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" s="61"/>
+      <c r="M59" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="54"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="19" t="s">
+      <c r="C60" s="59"/>
+      <c r="D60" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="I54" s="44"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="54"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
-      <c r="B55" s="70" t="s">
+      <c r="H60" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="54"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+      <c r="B61" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="64" t="s">
+      <c r="C61" s="59"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="66"/>
-      <c r="M55" s="52" t="s">
+      <c r="L61" s="61"/>
+      <c r="M61" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="54"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="55" t="s">
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="54"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+      <c r="B62" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="57"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
-      <c r="B57" s="13" t="s">
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="64"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
+      <c r="B63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C63" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="17" t="s">
+      <c r="D63" s="71"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="64" t="s">
+      <c r="G63" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="66"/>
-      <c r="I57" s="64" t="s">
+      <c r="H63" s="61"/>
+      <c r="I63" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="66"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="68"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
-      <c r="B58" s="8">
+      <c r="J63" s="61"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="73"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
+      <c r="B64" s="8">
         <v>1</v>
       </c>
-      <c r="C58" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="H58" s="60"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="62"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="62"/>
+      <c r="C64" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="D64" s="66"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="H64" s="67"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="69"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -8901,112 +9275,6 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-task/model/nop-task.orm.xlsx
+++ b/nop-task/model/nop-task.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-task\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB40C7E-E6A9-401A-894C-16E7B8968399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01462EFA-71B8-4EEC-8810-A6FCAD836AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -2090,27 +2090,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,7 +2117,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2148,6 +2133,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3933,19 +3933,9 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="A30:A39"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
@@ -3955,11 +3945,21 @@
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5390,33 +5390,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="31" t="s">
         <v>320</v>
       </c>
@@ -5430,10 +5430,10 @@
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="61"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="52" t="s">
         <v>322</v>
       </c>
@@ -5443,10 +5443,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="31" t="s">
         <v>321</v>
       </c>
@@ -5460,10 +5460,10 @@
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="60" t="s">
+      <c r="K26" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="61"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="52" t="s">
         <v>73</v>
       </c>
@@ -5473,10 +5473,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="31" t="s">
         <v>318</v>
       </c>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -5510,10 +5510,10 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="61"/>
+      <c r="L28" s="66"/>
       <c r="M28" s="52" t="s">
         <v>273</v>
       </c>
@@ -5523,96 +5523,129 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="64"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="60" t="s">
+      <c r="H30" s="66"/>
+      <c r="I30" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="73"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="68"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="H31" s="67"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="69"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="67"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="69"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
@@ -5629,39 +5662,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7066,33 +7066,33 @@
       <c r="P46" s="33"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="57"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="74"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>1</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="59"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="31" t="s">
         <v>343</v>
       </c>
@@ -7104,10 +7104,10 @@
       <c r="H49" s="31"/>
       <c r="I49" s="32"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="60" t="s">
+      <c r="K49" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="61"/>
+      <c r="L49" s="66"/>
       <c r="M49" s="52" t="s">
         <v>341</v>
       </c>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="31" t="s">
         <v>135</v>
       </c>
@@ -7134,10 +7134,10 @@
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="60" t="s">
+      <c r="K50" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L50" s="61"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="52" t="s">
         <v>73</v>
       </c>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="31"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -7169,10 +7169,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="59"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="31"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
@@ -7180,10 +7180,10 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="33"/>
-      <c r="K52" s="60" t="s">
+      <c r="K52" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="61"/>
+      <c r="L52" s="66"/>
       <c r="M52" s="52" t="s">
         <v>108</v>
       </c>
@@ -7193,108 +7193,118 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="64"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="57"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="61"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="66"/>
       <c r="F54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="60" t="s">
+      <c r="G54" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="61"/>
-      <c r="I54" s="60" t="s">
+      <c r="H54" s="66"/>
+      <c r="I54" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J54" s="61"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="73"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="68"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="65" t="s">
+      <c r="G55" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="H55" s="67"/>
+      <c r="H55" s="60"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="69"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="62"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="67"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="60"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="69"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M51:P51"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A46:P46"/>
     <mergeCell ref="A48:P48"/>
@@ -7311,28 +7321,18 @@
     <mergeCell ref="M50:P50"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7344,7 +7344,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7981,7 +7981,9 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7">
+        <v>37</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
@@ -8008,7 +8010,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8038,7 +8040,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -8068,7 +8070,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -8100,7 +8102,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8132,7 +8134,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8164,7 +8166,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -8194,7 +8196,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -8224,7 +8226,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8254,7 +8256,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8284,7 +8286,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -8314,7 +8316,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8348,7 +8350,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -8384,7 +8386,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -8418,7 +8420,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -8454,7 +8456,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -8488,7 +8490,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -8539,33 +8541,33 @@
       <c r="P39" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="57"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="74"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>1</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="31" t="s">
         <v>339</v>
       </c>
@@ -8579,10 +8581,10 @@
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="60" t="s">
+      <c r="K42" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="61"/>
+      <c r="L42" s="66"/>
       <c r="M42" s="52" t="s">
         <v>341</v>
       </c>
@@ -8592,10 +8594,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="31" t="s">
         <v>325</v>
       </c>
@@ -8609,10 +8611,10 @@
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="60" t="s">
+      <c r="K43" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L43" s="61"/>
+      <c r="L43" s="66"/>
       <c r="M43" s="52" t="s">
         <v>73</v>
       </c>
@@ -8622,10 +8624,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="31"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
@@ -8644,10 +8646,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="31"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -8655,10 +8657,10 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="33"/>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="61"/>
+      <c r="L45" s="66"/>
       <c r="M45" s="52" t="s">
         <v>255</v>
       </c>
@@ -8668,102 +8670,102 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="64"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="57"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="61"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
       <c r="F47" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="60" t="s">
+      <c r="G47" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="61"/>
-      <c r="I47" s="60" t="s">
+      <c r="H47" s="66"/>
+      <c r="I47" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="61"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="73"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="68"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="8">
         <v>1</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="65" t="s">
+      <c r="G48" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="H48" s="67"/>
+      <c r="H48" s="60"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="69"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="62"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="60"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="67"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="60"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="69"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="62"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>2</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="31" t="s">
         <v>355</v>
       </c>
@@ -8775,10 +8777,10 @@
       <c r="H50" s="31"/>
       <c r="I50" s="32"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="60" t="s">
+      <c r="K50" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L50" s="61"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="52" t="s">
         <v>341</v>
       </c>
@@ -8788,10 +8790,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="31" t="s">
         <v>208</v>
       </c>
@@ -8805,10 +8807,10 @@
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="33"/>
-      <c r="K51" s="60" t="s">
+      <c r="K51" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L51" s="61"/>
+      <c r="L51" s="66"/>
       <c r="M51" s="52" t="s">
         <v>73</v>
       </c>
@@ -8818,10 +8820,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="59"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="31"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
@@ -8840,10 +8842,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="31"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
@@ -8851,10 +8853,10 @@
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="33"/>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L53" s="61"/>
+      <c r="L53" s="66"/>
       <c r="M53" s="52" t="s">
         <v>108</v>
       </c>
@@ -8864,102 +8866,102 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="64"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="57"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="61"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="60" t="s">
+      <c r="G55" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="61"/>
-      <c r="I55" s="60" t="s">
+      <c r="H55" s="66"/>
+      <c r="I55" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="61"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="73"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="68"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="8">
         <v>1</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="65" t="s">
+      <c r="G56" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="H56" s="67"/>
+      <c r="H56" s="60"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="69"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="62"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="60"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="67"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="60"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="69"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="62"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>3</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="59"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="31" t="s">
         <v>358</v>
       </c>
@@ -8973,10 +8975,10 @@
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="33"/>
-      <c r="K58" s="60" t="s">
+      <c r="K58" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L58" s="61"/>
+      <c r="L58" s="66"/>
       <c r="M58" s="52" t="s">
         <v>365</v>
       </c>
@@ -8986,10 +8988,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="59"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="31" t="s">
         <v>359</v>
       </c>
@@ -9003,10 +9005,10 @@
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="33"/>
-      <c r="K59" s="60" t="s">
+      <c r="K59" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="L59" s="61"/>
+      <c r="L59" s="66"/>
       <c r="M59" s="52" t="s">
         <v>73</v>
       </c>
@@ -9016,10 +9018,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="59"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="31" t="s">
         <v>361</v>
       </c>
@@ -9042,10 +9044,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
@@ -9053,10 +9055,10 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
       <c r="J61" s="33"/>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L61" s="61"/>
+      <c r="L61" s="66"/>
       <c r="M61" s="52" t="s">
         <v>108</v>
       </c>
@@ -9066,178 +9068,109 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="64"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="57"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="71"/>
-      <c r="E63" s="61"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="60" t="s">
+      <c r="G63" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="61"/>
-      <c r="I63" s="60" t="s">
+      <c r="H63" s="66"/>
+      <c r="I63" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J63" s="61"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="73"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="68"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="8">
         <v>1</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="D64" s="66"/>
-      <c r="E64" s="67"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="60"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="65" t="s">
+      <c r="G64" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="H64" s="67"/>
+      <c r="H64" s="60"/>
       <c r="I64" s="3"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="69"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="62"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="67"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="67"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="60"/>
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="69"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:J45"/>
     <mergeCell ref="K45:L45"/>
@@ -9262,19 +9195,88 @@
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="M44:P44"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
